--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +434,647 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ETF-主题轮动精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-04 12:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:39</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:38</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-04 10:12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -751,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1235,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1559,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1969,7 +2611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2572,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2669,236 +3311,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -2973,7 +3385,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2983,31 +3395,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6889999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -3019,22 +3431,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3043,39 +3455,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3084,40 +3496,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3126,12 +3537,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,16 +503,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.31</v>
+        <v>4.68</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -523,41 +524,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-18 09:35</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>航锦科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.31</v>
+        <v>22.66</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -566,270 +567,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-17 09:52</t>
+          <t>2025-07-18 13:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 大众交通2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:31</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>33.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-17 13:44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:32</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>止损 合锻智能2025年07月17日主力资金流</t>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
         </is>
       </c>
     </row>
@@ -902,6 +645,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -1070,6 +1043,416 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-17 09:52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 大众交通2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>纺织服饰 华孚时尚2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>走势弱于预期。 主业盈利能力稳定，机器人等新领域拓展提速</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-17 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>多元金融 恒生电子2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>止损 合锻智能2025年07月17日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1877,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2611,7 +2994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2978,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3214,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3319,234 +3702,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,19 +504,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>三一重工</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.68</v>
+        <v>20.33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -524,12 +525,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-18 09:35</t>
+          <t>2025-07-22 10:14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
         </is>
       </c>
     </row>
@@ -541,38 +542,124 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>000***</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:55</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
         </is>
       </c>
     </row>
@@ -587,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,27 +732,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>603079</v>
+        <v>603217</v>
       </c>
       <c r="E2" t="n">
-        <v>17.95</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -674,133 +761,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:49</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -875,6 +839,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -1043,6 +1237,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-18 09:35</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一华孚时尚近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：一、、主力主力资金流出资金流出：近：近5日5日主力资金主力资金流出流出00..6363亿元，亿元，显示市场显示市场资金撤离资金撤离迹象。迹象。二、二、股民股民成本分布：成本分布：990%0%股民股民的成本的成本在在44..5522元元至至66..772元2元，，2277..228484%%的股民的股民收盘收盘盈利盈利，市场，市场情绪情绪分化分化。。三三、技术、技术支撑与支撑与压力：压力：前期支撑前期支撑位位4.4.3390元90，压力位元，压力位4.4.94940元，0元股价面临，股价面临技术调整技术调整压力压力。。华孚华孚时尚近期主力资金时尚近期主力资金持续持续流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破流出，市场情绪分化，技术面显示调整压力增大，需关注股价是否能有效突破压力位压力位。风险。风险提示：提示：以上以上内容内容仅供参考仅供参考，，不不构成投资构成投资建议，建议，股市有股市有风险风险，，投资需谨慎。投资需谨慎。 华孚时尚2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>航锦科技主力资金流入，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升。二、技术指标金叉：个股出现kdj金叉技术形态，短期走势向好。三、成本分布：90%股民的成本在21.68元--25.28元，59.377%的股民盈利。航锦科技目前走势显示市场关注度提升，技术指标向好，重点关注能否突破压力位22.78元。风险提示：以上内容仅供参考，不构成投资建议，股市航有风险锦科技，投资主力资金流入需谨慎。，技术指标出现金叉，能否突破压力位？一、主力资金流入：近5日主力资金流入0.74亿元，显示市场关注度提升 航锦科技2025年07月18日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1776,7 +2122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2584,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2994,7 +3340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3361,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3595,111 +3941,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,18 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,6 +437,115 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -494,7 +604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,19 +614,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
       </c>
       <c r="E2" t="n">
-        <v>20.33</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,12 +633,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 10:14</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
+          <t>元利科技调仓理由</t>
         </is>
       </c>
     </row>
@@ -542,12 +650,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,10 +664,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.4</v>
+        <v>4.08</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,19 +676,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:07</t>
+          <t>2025-07-09 14:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+          <t>粤宏远A调仓理由</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -590,19 +698,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>浙文互联</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.06</v>
+        <v>8.33</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -611,12 +719,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-22 13:17</t>
+          <t>2025-07-09 14:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+          <t>浙文互联调仓理由</t>
         </is>
       </c>
     </row>
@@ -633,19 +741,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通力科技</t>
+          <t>荣晟环保</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.5</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -654,12 +762,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-22 13:44</t>
+          <t>2025-07-09 10:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+          <t>荣晟环保调仓理由</t>
         </is>
       </c>
     </row>
@@ -668,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -765,236 +873,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -1069,6 +947,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -1237,6 +1345,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1388,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1798,7 +2144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2122,7 +2468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2606,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +3276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3340,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3705,240 +4051,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,19 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,38 +501,339 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰奥威</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:41</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
         </is>
       </c>
     </row>
@@ -541,6 +843,373 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-10 09:57</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>维生素</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>减仓一半</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-10 14:42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>全部出局</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -776,7 +1445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -873,236 +1542,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -1177,7 +1616,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETF-主题轮动精选</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1187,31 +1626,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>515790</v>
+        <v>603079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6889999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F2" t="n">
-        <v>49.79</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-04 12:49</t>
+          <t>2025-07-07 09:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1662,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2666</v>
+        <v>2440</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>7.92</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1247,39 +1686,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39</t>
+          <t>2025-07-07 10:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-中线龙头</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601997</v>
+        <v>603001</v>
       </c>
       <c r="E4" t="n">
-        <v>6.52</v>
+        <v>7.02</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1288,40 +1727,39 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:38</t>
+          <t>2025-07-07 13:29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
-胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>元利科技</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>600667</v>
+        <v>603217</v>
       </c>
       <c r="E5" t="n">
-        <v>6.52</v>
+        <v>17.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1330,12 +1768,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-04 10:12</t>
+          <t>2025-07-07 14:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,50 +1846,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>ETF-主题轮动精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>515790</v>
       </c>
       <c r="E2" t="n">
-        <v>20.33</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>49.79</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-22 10:14</t>
+          <t>2025-07-04 12:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
+          <t>光伏ETF调仓理由：工信部召开光伏行业反内卷专项座谈会。趁回调低吸。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1461,19 +1897,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2666</v>
       </c>
       <c r="E3" t="n">
-        <v>22.4</v>
+        <v>5.1</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1482,19 +1916,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:07</t>
+          <t>2025-07-04 10:39</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+          <t>德联集团调仓理由：德联集团近期主力资金流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：2025年07月04日主力资金流出0.04亿元，近5日主力资金流入0.02亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标出现金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为4.96元，90%股民的成本在4.48元--5.11元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是4.680元，压力位是5.150元。&lt;br/&gt;&lt;br/&gt;德联集团近期主力资金流出，技术指标出现金叉，但需关注短期调整压力。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1504,19 +1938,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
+          <t>贵阳银行</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>601997</v>
       </c>
       <c r="E4" t="n">
-        <v>8.06</v>
+        <v>6.52</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1525,19 +1957,20 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-22 13:17</t>
+          <t>2025-07-04 10:38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+          <t>贵阳银行调仓理由：贵阳银行主力资金流入，技术指标出现金叉，能否突破压力位?&lt;br/&gt;&lt;br/&gt;一、主力资金流入：2025年07月04日主力资金流入0.50亿元，近5日主力资金流出0.25亿元。&lt;br/&gt;&lt;br/&gt;二、技术指标金叉：个股出现kdj金叉技术形态指标。&lt;br/&gt;&lt;br/&gt;三、成本分布：股民平均成本为5.75元，90%股民的成本在5.44元--6.43元。&lt;br/&gt;&lt;br/&gt;四、支撑与压力位：前期支撑位是5.190元，压力位是5.700元。&lt;br/&gt;&lt;br/&gt;贵阳银行近期主力资金流入，技术指标出现金叉，关注能否突破压力位5.700元。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。
+胜科纳米调仓理由：胜科纳米近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.90亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在23.52元--29.89元，11.746%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位22.491元，压力位29.561元，股价面临技术调整压力。&lt;br/&gt;&lt;br/&gt;胜科纳米近期主力资金持续流出，技术面显示调整压力增大，需关注股价是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>赛-情绪拐点龙头战法</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1547,16 +1980,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>600667</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5</v>
+        <v>6.52</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1568,12 +1999,121 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-22 13:44</t>
+          <t>2025-07-04 10:12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+          <t>太极实业调仓理由：太极实业近期主力资金持续流出，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流出：近5日主力资金流出0.19亿元，显示市场资金撤离迹象。&lt;br/&gt;&lt;br/&gt;二、股民成本分布：90%股民的成本在6.14元--7.64元，46.219%的股民收盘盈利。&lt;br/&gt;&lt;br/&gt;三、技术支撑与压力：前期支撑位6.090元，压力位6.670元，股价面临技术调整。&lt;br/&gt;&lt;br/&gt;太极实业近期主力资金持续流出，技术面显示股价面临调整压力，需关注是否能有效支撑。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
         </is>
       </c>
     </row>
@@ -1583,6 +2123,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2144,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2468,7 +3246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2952,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3276,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3684,371 +4462,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-10 09:57</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>维生素</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:15</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>减仓一半</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-10 14:42</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,20 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,6 +439,326 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>603936</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 领益智造2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>换票 人福医药2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光迅科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -496,29 +817,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.51</v>
+        <v>20.58</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -527,19 +848,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-24 10:04</t>
+          <t>2025-07-11 13:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>减仓 望变电气2025年07月24日主力资金流</t>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,16 +870,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>许继电气</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603967</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.71</v>
+        <v>21.91</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -570,41 +891,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-24 10:08</t>
+          <t>2025-07-11 13:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.55</v>
+        <v>33.58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -613,19 +934,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-24 10:28</t>
+          <t>2025-07-11 13:16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>全部出局 望变电气2025年07月24日主力资金流</t>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -635,19 +956,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三安光电</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.64</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -656,41 +977,41 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-24 10:44</t>
+          <t>2025-07-11 11:48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
+          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万丰奥威</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.81</v>
+        <v>16.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -699,12 +1020,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-24 11:19</t>
+          <t>2025-07-11 10:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -716,12 +1037,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>人福医药</t>
+          <t>保利发展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -730,10 +1051,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.27</v>
+        <v>8.33</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -742,12 +1063,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-24 13:32</t>
+          <t>2025-07-11 10:10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
         </is>
       </c>
     </row>
@@ -764,16 +1085,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>海格通信</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.95</v>
+        <v>12.97</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -785,12 +1106,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-24 13:44</t>
+          <t>2025-07-11 13:43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
+          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
         </is>
       </c>
     </row>
@@ -807,7 +1128,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -816,7 +1137,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9.06</v>
+        <v>10.96</v>
       </c>
       <c r="F9" t="n">
         <v>33</v>
@@ -828,12 +1149,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-24 14:41</t>
+          <t>2025-07-11 13:59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -842,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1445,7 +1766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,236 +1863,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -1846,6 +1937,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -2014,6 +2335,416 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>全部出局 望变电气2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万丰奥威</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:41</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2122,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +3243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2922,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3246,7 +3977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3730,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4052,414 +4783,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:22</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:21</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-11 11:48</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>多氟多近期获融资买入，资金流入是否预示着新的机会？以下为具体分析：一、融资买入增加：7月10日获融资买入2007.14万元，占当日买入金额的16.63%。二、融资余额较低：当前融资余额7.40亿元，占流通市值的5.62%，低于历史20%分位水平。多氟多近期融资买入增加，显示市场资金对其关注度提升，但融资余额仍处于较低水平，是否预示着新的机会值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 多氟多：7月10日获融资买入2007.14万元，占当日流入资金比例为16.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:28</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-11 10:10</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:43</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>换票 海格通信：双方已在北斗高精度服务等展开紧密合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:59</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,21 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,6 +440,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -497,7 +564,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,17 +574,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2329</v>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3.84</v>
+        <v>7.48</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,39 +595,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-25 13:20</t>
+          <t>2025-07-14 14:43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>603936</v>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>10.03</v>
+        <v>30.04</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -567,12 +638,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-25 13:20</t>
+          <t>2025-07-14 14:29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -589,16 +660,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9.17</v>
+        <v>33.47</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -610,12 +681,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-25 14:19</t>
+          <t>2025-07-14 14:12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 领益智造2025年07月25日主力资金流</t>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
         </is>
       </c>
     </row>
@@ -627,24 +698,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙大网新</t>
+          <t>雪人集团</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.789999999999999</v>
+        <v>11.09</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -653,12 +724,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-25 14:30</t>
+          <t>2025-07-14 14:04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
         </is>
       </c>
     </row>
@@ -675,7 +746,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>人福医药</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -684,7 +755,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.97</v>
+        <v>21.26</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -696,41 +767,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-25 14:51</t>
+          <t>2025-07-14 10:56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>换票 人福医药2025年07月25日主力资金流</t>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光迅科技</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>47.74</v>
+        <v>4.25</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -739,12 +810,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-25 14:52</t>
+          <t>2025-07-14 10:11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>
@@ -753,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1163,7 +1234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1530,7 +1601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1607,8 +1678,10 @@
           <t>元利科技</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>603217</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>18.37</v>
@@ -1766,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1843,8 +1916,10 @@
           <t>元利科技</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>603217</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>18.37</v>
@@ -1863,236 +1938,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -2167,6 +2012,244 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -2180,11 +2263,13 @@
           <t>光伏ETF</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>515790</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>49.79</v>
@@ -2221,8 +2306,10 @@
           <t>德联集团</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2666</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>5.1</v>
@@ -2262,8 +2349,10 @@
           <t>贵阳银行</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>601997</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601997</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>6.52</v>
@@ -2304,8 +2393,10 @@
           <t>太极实业</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>600667</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600667</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>6.52</v>
@@ -2335,6 +2426,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 领益智造2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>换票 人福医药2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光迅科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2744,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2853,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3091,7 +3506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3243,7 +3658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3653,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3977,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4054,8 +4469,10 @@
           <t>多氟多</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2407</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>12.24</v>
@@ -4095,8 +4512,10 @@
           <t>奥康国际</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>603001</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>8.109999999999999</v>
@@ -4136,8 +4555,10 @@
           <t>中创物流</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>603967</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>11.26</v>
@@ -4177,8 +4598,10 @@
           <t>博敏电子</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>603936</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>9.9</v>
@@ -4218,8 +4641,10 @@
           <t>圣达生物</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>603079</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>17.44</v>
@@ -4259,8 +4684,10 @@
           <t>闰土股份</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2440</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>7.86</v>
@@ -4453,330 +4880,6 @@
       <c r="I11" t="inlineStr">
         <is>
           <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:29</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:12</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>雪人集团</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-14 14:04</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:56</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-14 10:11</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,23 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,6 +442,115 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -499,29 +609,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>皇氏集团</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002329</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.01</v>
+        <v>20.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -530,12 +640,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-29 09:43</t>
+          <t>2025-07-16 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -552,19 +662,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.81</v>
+        <v>6.19</v>
       </c>
       <c r="F3" t="n">
-        <v>33.29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -573,12 +683,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-29 09:46</t>
+          <t>2025-07-16 10:13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -590,24 +700,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82.75</v>
+        <v>25.57</v>
       </c>
       <c r="F4" t="n">
-        <v>33.29</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -616,12 +726,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-29 11:18</t>
+          <t>2025-07-16 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
         </is>
       </c>
     </row>
@@ -633,24 +743,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙大网新</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.56</v>
+        <v>16.68</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -659,12 +769,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-29 14:26</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>换票 浙大网新2025年07月29日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -681,19 +791,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.95</v>
+        <v>16.68</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -702,41 +812,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-29 14:44</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.95</v>
+        <v>15.71</v>
       </c>
       <c r="F7" t="n">
-        <v>32.89</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -745,12 +855,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-29 14:44</t>
+          <t>2025-07-16 13:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -759,7 +869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1255,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1579,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1989,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2356,7 +2466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2594,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2691,236 +2801,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -2995,6 +2875,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -3163,6 +3273,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:18</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>换票 浙大网新2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:44</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3228,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3552,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3962,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4071,7 +4505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4309,7 +4743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4461,7 +4895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4869,328 +5303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,49 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,26 +7,28 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,17 +504,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,10 +523,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>20.28</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,12 +535,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-06 09:50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>止盈 光华科技2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -550,38 +552,296 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:58</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>消费电子 领益智造2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E5" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:43</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:21</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -591,6 +851,353 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>减仓 三一重工2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>减仓 航锦科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>全部出局 通力科技2025年07月22日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -742,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,826 +1751,6 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>止损 合锻智能2025年07月17日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:13</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-16 13:46</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603001</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>603079</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002440</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:29</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:38</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>XD东方创</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:47</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国轩高科</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-07-15 14:36</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2036,7 +1823,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2046,7 +1833,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2055,10 +1842,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.48</v>
+        <v>20.44</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2067,12 +1854,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-14 14:43</t>
+          <t>2025-07-16 09:37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+          <t>机器人 卧龙电驱2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2089,16 +1876,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.04</v>
+        <v>6.19</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -2110,12 +1897,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-14 14:29</t>
+          <t>2025-07-16 10:13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>固态 国轩高科2025年07月14日主力资金流</t>
+          <t>无人出租车 大众交通2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2132,7 +1919,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2141,7 +1928,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.47</v>
+        <v>25.57</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2153,12 +1940,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-14 14:12</t>
+          <t>2025-07-16 10:09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+          <t>换票 35家半导体公司上半年业绩一览：龙头企业高歌猛进 部分厂商深陷亏损泥潭</t>
         </is>
       </c>
     </row>
@@ -2170,24 +1957,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.09</v>
+        <v>16.68</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2196,12 +1983,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-14 14:04</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -2213,24 +2000,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.26</v>
+        <v>16.68</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2239,12 +2026,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-14 10:56</t>
+          <t>2025-07-16 11:17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+          <t>核聚变 合锻智能2025年07月16日主力资金流</t>
         </is>
       </c>
     </row>
@@ -2261,16 +2048,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>新亚强</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.25</v>
+        <v>15.71</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2282,12 +2069,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-14 10:11</t>
+          <t>2025-07-16 13:46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+          <t>新亚强近期主力资金持续流出，是否预示着股价调整压力增大？以下为具体分析：一、主力资金流出：近5日主力资金流出0.57亿元，显示市场资金撤离迹象。二、成本分布：90%股民的成本在13.28元至19.04元，17.419%的股民收盘盈利，市场情绪偏谨慎。三、技术支撑与压力：前期支撑位15.880元，压力位17.150元，股价面临技术调整压力。新亚强近期主力资金持续流出，市场情绪偏谨慎，股价面临技术调整压力，需关注其能否有效突破压力位。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 新亚强2025年07月16日主力资金流出</t>
         </is>
       </c>
     </row>
@@ -2297,6 +2084,826 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>锂电材料-溶剂市场价格稳定，石大胜华是否面临压力？以下为具体分析：一、市场价格稳定：碳酸二甲酯(DMC)溶剂价格环比无变动，市场供需平衡。二、产品收入占比高：石大胜华碳酸二甲酯系列收入占比达70.15%，对市场价格敏感。三、产量较大：石大胜华碳酸二甲酯系列产量达8.2万吨，市场地位显著。石大胜华作为锂电材料-溶剂市场的龙头企业，其产品价格和产量对业绩影响较大。当前市场价格稳定，公司是否面临业绩压力值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 行业追踪|锂电材料-溶剂市场（7月7日-7月13日）：碳酸二甲酯(DMC)溶剂价格环比没有变动</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603001</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>奥康国际业绩预亏，是否意味着股价承压？以下为具体分析：一、业绩预亏：预计2025年1-6月净利润为-8700.00万，同比下降338.84%。二、收入下降：营业收入预计10.81亿元，较上年同期下降约21%。三、行业环境：宏观经济下行、消费需求疲软及行业竞争加剧。奥康国际面临多重不利因素，业绩预亏可能对股价形成压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥康国际：预计2025年半年度亏损8700.00万元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603967</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-15 09:49</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>603079</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002440</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:29</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-07-15 10:38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>半导体，业绩预增 士兰微2025年07月15日主力资金流入</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:47</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>东方创业近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：一、主力资金流入减少：近5日主力资金流入0.06亿元，较前期减少。二、技术指标出现金叉：个股出现kdj金叉技术形态指标，短期可能有反弹。三、成本分布：股民平均成本为7.36元，90%股民的成本在6.64元至7.98元。四、支撑与压力位：前期支撑位是6.726元，压力位是7.506元。东方创业近期主力资金流入减少，技术指标出现金叉，短期可能面临调整压力，需关注支撑位和压力位的突破情况。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 东方创业2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-07-15 14:36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>技术面跌破20日线，指数回升时并没有联动回升 国轩高科2025年07月15日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海自由贸易 东方创业2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:29</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>固态 国轩高科2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 长电科技：在韩国、新加坡、中国等地布局八大生产基地</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 雪人股份：为匹配集团化发展战略 拟将证券简称变更为“雪人集团”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>止盈 龙溪股份2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>全部出局 粤宏远A2025年07月14日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2706,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3065,351 +3672,6 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>全部出局</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603217</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>元利科技调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:19</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>粤宏远A调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙文互联</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-09 14:11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>浙文互联调仓理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-09 10:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>荣晟环保调仓理由</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
         </is>
       </c>
     </row>
@@ -3482,27 +3744,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603217</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>17.95</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3511,19 +3775,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:49</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>元利科技调仓理由</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3533,17 +3797,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>7.92</v>
+        <v>4.08</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3552,39 +3818,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27</t>
+          <t>2025-07-09 14:19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>粤宏远A调仓理由</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
+          <t>浙文互联</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>7.02</v>
+        <v>8.33</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3593,39 +3861,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-07 13:29</t>
+          <t>2025-07-09 14:11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+          <t>浙文互联调仓理由</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>17.75</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3634,12 +3904,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-07 14:44</t>
+          <t>2025-07-09 10:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>荣晟环保调仓理由</t>
         </is>
       </c>
     </row>
@@ -3649,6 +3919,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-05 10:14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3712,7 +4134,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3722,16 +4144,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603217</v>
       </c>
       <c r="E2" t="n">
-        <v>12.42</v>
+        <v>18.37</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3743,12 +4163,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-31 11:19</t>
+          <t>2025-07-08 14:34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -3757,7 +4177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3821,6 +4241,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -3989,6 +4639,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4062,16 +4864,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4083,336 +4885,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002329</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:43</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:46</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华勤技术</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-29 11:18</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙大网新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:26</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>换票 浙大网新2025年07月29日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:44</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:44</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>小金属 东方锆业2025年07月29日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4479,6 +4957,49 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4556,7 +5077,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4570,10 +5091,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4582,7 +5103,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-25 13:20</t>
+          <t>2025-07-29 09:43</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4594,29 +5115,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>赛-情绪拐点龙头战法</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>航天彩虹</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>603936</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.03</v>
+        <v>25.81</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33.29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4625,12 +5146,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-25 13:20</t>
+          <t>2025-07-29 09:46</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>军工走势超预期 航天彩虹2025年07月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4642,24 +5163,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>华勤技术</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9.17</v>
+        <v>82.75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4668,12 +5189,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-25 14:19</t>
+          <t>2025-07-29 11:18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>换票 领益智造2025年07月25日主力资金流</t>
+          <t>算力补涨 华勤技术2025年07月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4685,7 +5206,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4699,10 +5220,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.789999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4711,12 +5232,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-25 14:30</t>
+          <t>2025-07-29 14:26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+          <t>换票 浙大网新2025年07月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4728,24 +5249,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>人福医药</t>
+          <t>****</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.97</v>
+        <v>12.95</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>32.89</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4754,12 +5275,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-25 14:51</t>
+          <t>2025-07-29 14:44</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>换票 人福医药2025年07月25日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -4776,7 +5297,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光迅科技</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4785,10 +5306,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>47.74</v>
+        <v>12.95</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>32.89</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4797,12 +5318,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-25 14:52</t>
+          <t>2025-07-29 14:44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+          <t>小金属 东方锆业2025年07月29日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4812,6 +5333,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 领益智造2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>换票 人福医药2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光迅科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5219,351 +6130,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:37</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>雅下水电概念 望变电气2025年07月23日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:14</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>减仓 三一重工2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:07</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>减仓 航锦科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:17</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>中字头+雅江+工程机械 中联重科：有望深度参与雅鲁藏布江下游水电工程建设的核心环节</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>全部出局 通力科技2025年07月22日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,28 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,6 +447,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 领益智造2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 智微智能2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>海思 深圳华强2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-07 13:54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 天赐材料2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,7 +786,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,19 +796,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.28</v>
+        <v>14.51</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -535,41 +817,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:50</t>
+          <t>2025-07-24 10:04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 光华科技2025年08月06日主力资金流</t>
+          <t>减仓 望变电气2025年07月24日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>603967</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.44</v>
+        <v>11.71</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -578,19 +860,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-06 09:58</t>
+          <t>2025-07-24 10:08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>消费电子 领益智造2025年08月06日主力资金流</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -600,16 +882,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>601***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80.68000000000001</v>
+        <v>15.55</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -621,12 +903,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-06 09:31</t>
+          <t>2025-07-24 10:28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
+          <t>全部出局 望变电气2025年07月24日主力资金流</t>
         </is>
       </c>
     </row>
@@ -638,24 +920,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>三安光电</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.61</v>
+        <v>12.64</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -664,12 +946,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-06 10:40</t>
+          <t>2025-07-24 10:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
+          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
         </is>
       </c>
     </row>
@@ -681,12 +963,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>万丰奥威</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -695,10 +977,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.36</v>
+        <v>16.81</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -707,12 +989,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-06 10:52</t>
+          <t>2025-07-24 11:19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
+          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
         </is>
       </c>
     </row>
@@ -729,16 +1011,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>人福医药</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>600***</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>54.44</v>
+        <v>22.27</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
@@ -750,41 +1032,41 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-06 11:21</t>
+          <t>2025-07-24 13:32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
+          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>奥飞娱乐</t>
+          <t>中联重科</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>002***</t>
+          <t>000***</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.51</v>
+        <v>7.95</v>
       </c>
       <c r="F8" t="n">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -793,41 +1075,41 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-06 09:34</t>
+          <t>2025-07-24 13:44</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
+          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>组-一枝梨花压海棠</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三星医疗</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>601***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.78</v>
+        <v>9.06</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -836,12 +1118,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-06 13:36</t>
+          <t>2025-07-24 14:41</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
+          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
         </is>
       </c>
     </row>
@@ -850,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1197,7 +1479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1349,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2579,7 +2861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2903,7 +3185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3313,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3680,7 +3962,417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:50</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 光华科技2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:58</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>消费电子 领益智造2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:21</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3918,159 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4167,236 +4707,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -4471,6 +4781,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -4702,7 +5242,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4712,7 +5252,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4721,10 +5261,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4733,12 +5273,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4750,12 +5290,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4764,10 +5304,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4776,12 +5316,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4796,7 +5336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4854,43 +5394,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -4973,16 +5556,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4994,12 +5577,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5009,6 +5592,115 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5332,7 +6024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5398,7 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5720,414 +6412,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:04</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>减仓 望变电气2025年07月24日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603967</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:08</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:28</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>全部出局 望变电气2025年07月24日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>三安光电</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>碳化硅反内卷 三安光电2025年07月24日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万丰奥威</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-24 11:19</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>去弱，换掉弱票。空出仓位做其他票 万丰奥威：公司立足全球市场，降低贸易壁垒风险</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>人福医药</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-24 13:32</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>集采纠偏。麻醉镇痛药 人福医药2025年07月24日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>000***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-07-24 13:44</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>控制仓位 中联重科2025年07月24日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-07-24 14:41</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>消费电子，工业机器人 深市电子行业六成公司预喜，AI+显示巨头狂飙</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -7,29 +7,30 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-09" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +511,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,10 +525,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.93</v>
+        <v>14.86</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,41 +537,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:32</t>
+          <t>2025-08-11 10:04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈 领益智造2025年08月07日主力资金流</t>
+          <t>陪护机器人 梦网科技2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-中线龙头</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001***</t>
+          <t>603***</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54.46</v>
+        <v>10.54</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -579,19 +580,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-07 10:44</t>
+          <t>2025-08-11 10:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>换票 智微智能2025年08月07日主力资金流</t>
+          <t>博敏电子AMB陶瓷衬板在第三代半导体领域量产应用，能否带动股价上行？以下为具体分析：一、技术突破：AMB陶瓷衬板在第三代半导体功率模块头部企业量产应用。二、市场拓展：产品获得国内外头部企业、海外车企供应链小批量交付、认证通过。三、行业前景：第三代半导体市场前景广阔，公司产品有望受益于行业增长。博敏电子在第三代半导体领域的技术突破和市场拓展，为其带来了新的增长点，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 博敏电子：公司AMB陶瓷衬板陆续在第三代半导体功率模块头部企业量产应用</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>组-一枝梨花压海棠</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -601,19 +602,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深圳华强</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>000***</t>
+          <t>605***</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.47</v>
+        <v>32.55</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>9.26</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -622,98 +623,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-07 11:28</t>
+          <t>2025-08-11 13:30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>海思 深圳华强2025年08月07日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-07 13:54</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>离场 天赐材料2025年08月07日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰海通</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-07 11:17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+          <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
@@ -723,6 +638,330 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002329</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603936</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>换票 领益智造2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>换票 人福医药2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光迅科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-07-25 14:52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1479,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1631,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2365,7 +2604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2861,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3185,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3595,7 +3834,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈 领益智造2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>换票 智微智能2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>000***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>海思 深圳华强2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-07 13:54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>离场 天赐材料2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-07 11:17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>两融余额持续新高，关注头部券商 国泰海通2025年08月07日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3962,417 +4482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止盈 光华科技2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:58</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>消费电子 领益智造2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80.68000000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:31</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:40</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>19.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:52</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>001***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-06 11:21</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:34</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>三星医疗</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>601***</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:36</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4610,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4707,236 +4817,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>603079</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-07 09:49</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2440</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-07 10:27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>603001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-07 13:29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赛-短线趋势题材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>603217</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-07 14:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -5011,6 +4891,236 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>603079</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>圣达生物调仓理由：圣达生物主力资金流入，MACD金叉技术形态能否持续？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入：近5日主力资金流入0.05亿元，显示市场资金关注度较高。&lt;br/&gt;&lt;br/&gt;二、MACD金叉：个股出现MACD金叉技术形态，短期技术面改善。&lt;br/&gt;&lt;br/&gt;三、成本分布：90%股民的成本在15.96元至17.68元，98.45%的股民收盘盈利，市场情绪较好。&lt;br/&gt;&lt;br/&gt;圣达生物近期主力资金流入，MACD金叉技术形态出现，短期技术面有所改善，值得关注。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>赛-情绪拐点龙头战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2440</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>603001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥康国际调仓理由：奥康国际近期主力资金流入减少，是否意味着短期调整压力增大？以下为具体分析：&lt;br/&gt;&lt;br/&gt;一、主力资金流入减少：近5日主力资金流入0.14亿元，较前期减少。&lt;br/&gt;&lt;br/&gt;二、成本分布较集中：90%股民的成本在4.82元至6.86元之间。&lt;br/&gt;&lt;br/&gt;三、支撑位与压力位：前期支撑位为5.980元，压力位为6.630元。&lt;br/&gt;&lt;br/&gt;奥康国际近期主力资金流入减少，可能预示短期调整压力增大，需关注股价是否能有效突破压力位。&lt;br/&gt;风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>603217</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>ETF-主题轮动精选</t>
         </is>
       </c>
@@ -5184,7 +5294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5247,12 +5357,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5261,10 +5371,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.41</v>
+        <v>20.28</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5273,12 +5383,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-05 09:52</t>
+          <t>2025-08-06 09:50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>核聚变 王子新材2025年08月05日主力资金流</t>
+          <t>止盈 光华科技2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5304,7 +5414,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.55</v>
+        <v>9.44</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
@@ -5316,12 +5426,270 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-05 10:14</t>
+          <t>2025-08-06 09:58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
+          <t>消费电子 领益智造2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>恒立液压近期融资买入额较高，是否意味着短期调整压力增大？以下为具体分析：一、内销销量短期承压：2025年5月我国挖掘机内销销量同比下降1.5%，开工率下降5.0个百分点，显示下游需求低迷。二、融资买入额较高：8月1日恒立液压获融资买入2258.04万元，占当日买入金额的10.85%，融资余额超过历史90%分位水平。三、国际化趋势支撑整体销量：尽管内销承压，但国际化趋势支撑整体销量持续增长，2025年1-5月挖掘机出口销量同比增长17.4%。恒立液压作为工程机械行业的龙头，其融资买入额较高，但内销市场短期承压，需关注调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 工程机械行业2025年5月月报：5月挖掘机内销短期承压，国际化趋势支撑整体销量持续增长</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>腾出仓位换票 王子新材2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>固态硫化物 电池及电气系统：全固态电池电解质技术路线逐步向硫化物收敛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:21</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>华为十英伟达物理ai 智微智能2025上半年净利润大增80%，AI与PC业务双轮驱动</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>奥飞娱乐能否受益于AI玩具政策推动？以下为具体分析：一、主力资金流出：近5日主力资金流出2.02亿元，显示市场短期情绪偏弱。二、成本结构合理：90%股民的成本在9.38元--10.58元，23.071%的股民收盘盈利，成本结构较为合理。三、政策支持：AI玩具行业政策频发，持续推进“人工智能+”行动计划，利好相关企业。奥飞娱乐作为AI玩具行业的领先企业，能否受益于政策推动，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 奥飞娱乐2025年08月06日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601***</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>调仓一点到创业板三星医疗近期主力资金流入显著，但股价是否面临调整压力？以下为具体分析：一、主力资金流入显著：近5日主力资金流入1.73亿元，显示市场关注度较高。二、医疗板块表现突出：公司医疗板块有38家医院，重点打造重症康复特色，宁波明州医院妇产科评价较高。三、电力板块海外突破：电力板块持续聚焦海外战略，近期签订美国Nexgrid智能电表框架合同，实现北美市场突破。三星医疗目前主力资金流入显著，但股价已接近压力位23.080元，需关注是否面临调整压力。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。三星医疗近期主力资金流入显著， 三星医疗2025年08月06日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5404,7 +5772,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5413,10 +5781,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.4</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5425,12 +5793,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-01 09:31</t>
+          <t>2025-08-05 09:52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+          <t>核聚变 王子新材2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5810,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5456,10 +5824,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.81</v>
+        <v>19.55</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5468,12 +5836,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:43</t>
+          <t>2025-08-05 10:14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>离场 航天彩虹2025年08月01日主力资金流</t>
+          <t>硫化锂行业中产能最大的企业之一 光华科技2025年08月05日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5546,43 +5914,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>002***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-01 09:31</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>海外需求旺盛，Q1增长明显，公司能否延续强势表现？以下为具体分析：一、业绩增长显著：2024年公司实现营业总收入27.77亿元，同比+63.45%；归母净利润2.90亿元，同比+184.50%。二、海外业务表现突出：2024年海外业务收入12.81亿元，同比+44.99%。三、商用车行业信息化产品增长：2024年商用车行业信息化产品收入16.71亿元，同比+25.99%。四、Q1业绩稳健：2025年Q1，公司实现营业收入5.15亿元，同比+2.53%，归母净利润1.01亿元，同比+89.60%。公司业绩增长显著，尤其是海外业务和商用车行业信息化产品表现突出，Q1业绩稳健，值得关注。风险提示：以上内容仅供参考，不构成投资建议，股市有风险，投资需谨慎。 海外需求旺盛，Q1增长明显</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>002***</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:19</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>止损 东方锆业2025年07月31日主力资金流</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>离场 航天彩虹2025年08月01日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5665,16 +6076,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>东方锆业</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>603***</t>
+          <t>002***</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85.42</v>
+        <v>12.42</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5686,12 +6097,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-07-30 09:37</t>
+          <t>2025-07-31 11:19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+          <t>止损 东方锆业2025年07月31日主力资金流</t>
         </is>
       </c>
     </row>
@@ -5701,6 +6112,115 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>止盈换股 华勤技术2025年07月30日主力资金流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6024,7 +6544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6088,328 +6608,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>002329</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-07-25 13:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>赛-情绪拐点龙头战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>603936</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-07-25 13:20</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-07-25 14:19</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>换票 领益智造2025年07月25日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙大网新</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-07-25 14:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>国产算力 央行部署金融数据要素应用！金融机构数据治理如何按下“快捷键”</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>人福医药</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-07-25 14:51</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>换票 人福医药2025年07月25日主力资金流</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光迅科技</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>002***</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>47.74</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-07-25 14:52</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>国产光通信 光迅科技2025年07月25日主力资金流</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_portfolio_today.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,49 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>福福莱莱福莱新材新材新材环保包装环保包装环保包装方案助力方案方案助力绿色转型助力绿色转型绿色转型，主力，主力，主力资金持续资金持续资金持续流入流入，能否流入，能否，能否迎来突破迎来突破迎来突破?一?一?、主力、主力一、主力资金资金资金持续持续流入持续流入流入：近：近：近55日5日日主力资金主力资金主力资金流入1流入1流入1.2.2.28亿元8亿元8亿元，显示，显示，显示市场关注度较高市场关注度较高市场关注度较高。二。二。二、环保、环保、环保政策利好：政策利好：政策利好：上海“上海“上海“禁塑禁塑禁塑”新规”新规”新规9月19月9月11日起实施日起实施，日起实施，，福福莱福莱莱新材新材新材环保包装环保包装环保包装方案高度方案高度契合方案高度契合契合政策政策要求政策要求要求。三。三。三、技术、技术、技术优势明显优势明显：优势明显：：公司公司公司依托依托国家级依托国家级博士国家级博士博士后工作站后工作站后工作站及二十年及二十年精密及二十年精密精密涂涂布涂布布技术技术积累技术积累积累，构建，构建，构建了了完善的水了完善的完善的水性预性预水性预涂涂涂包装生态包装生态体系。包装体系。福莱福莱生态体系。福莱新材新材新材在环保在环保包装在环保包装领域的领域的布局包装领域的布局布局和技术优势和技术优势和技术优势，使其，使其，使其有望受益有望受益于有望受益于于政策政策推动政策推动推动，重点关注，重点关注，重点关注其能否其能否其能否突破突破压力位突破压力压力位34位3434.3.3.3000000元元。风险元。风险。风险提示：提示：提示：以上内容仅供参考以上内容仅供参考，，不以上内容仅供参考，不不构成投资构成投资构成投资建议建议，建议，股市，股市股市有风险有风险有风险，投资，投资，投资需需谨慎。需谨慎。谨慎。 福莱新材2025年08月11日主力资金流</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>001***</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>消费医药电力等防守板块表现，控制整体仓位。 宗申动力2025年08月11日主力资金流</t>
         </is>
       </c>
     </row>
